--- a/SuppXLS/Scen_UC_MANCOALIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALIMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51ACD38-42A5-4779-9376-7B1B15387AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E058DBA-3F2D-4F0C-B5E7-420A487422FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -74,9 +74,6 @@
     <t>UC - Each Region/Period</t>
   </si>
   <si>
-    <t>ETH</t>
-  </si>
-  <si>
     <t>DMD</t>
   </si>
   <si>
@@ -95,16 +92,22 @@
     <t>Minimum penetration of domestic Coal</t>
   </si>
   <si>
-    <t>UC_CEMENTHEAT_LOW</t>
-  </si>
-  <si>
     <t>UC_RHSRTS~0</t>
   </si>
   <si>
     <t>~UC_T:UC_COMPRD</t>
   </si>
   <si>
-    <t>COALIMP</t>
+    <t>MANCOALIMP</t>
+  </si>
+  <si>
+    <t>UC_CEMENTHEAT_MANCOALIMP_LOW</t>
+  </si>
+  <si>
+    <t>UC_COMPRD</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +574,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -603,16 +606,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="N5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>11</v>
@@ -620,22 +623,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
       </c>
       <c r="I6">
         <v>2022</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -644,30 +650,27 @@
         <v>-0.41</v>
       </c>
       <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6">
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <v>1</v>

--- a/SuppXLS/Scen_UC_MANCOALIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALIMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E058DBA-3F2D-4F0C-B5E7-420A487422FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E30EBF-77E9-46AD-BDAE-B9DD5C377CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
-    <t>~UC_Sets: R_E: AllRegions</t>
-  </si>
-  <si>
     <t>UC_N</t>
   </si>
   <si>
@@ -107,14 +104,17 @@
     <t>UC_COMPRD</t>
   </si>
   <si>
-    <t>AllRegions</t>
+    <t>~UC_Sets: R_E: ETH</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +130,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -210,21 +203,20 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -536,273 +528,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>10</v>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>11</v>
+      <c r="N5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
       </c>
       <c r="I6">
         <v>2022</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>-0.41</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>-0.25</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="P30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="P30" s="7"/>
     </row>
     <row r="31" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="P31" s="7"/>
     </row>
     <row r="32" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="G32" s="8"/>
-      <c r="P32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="P32" s="7"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="8"/>
+      <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/SuppXLS/Scen_UC_MANCOALIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALIMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E30EBF-77E9-46AD-BDAE-B9DD5C377CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD1411C-3597-42B3-B93C-CD281C71246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,9 @@
       <c r="L7" s="9">
         <v>-0.25</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="10">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L8" s="7"/>

--- a/SuppXLS/Scen_UC_MANCOALIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALIMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD1411C-3597-42B3-B93C-CD281C71246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B49EF-C988-40E0-81BB-7B495B871EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>UC_N</t>
   </si>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,6 +653,9 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>

--- a/SuppXLS/Scen_UC_MANCOALIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALIMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B49EF-C988-40E0-81BB-7B495B871EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA6CE32-B646-4E48-ADE9-AD0163C57B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_MANCOALMIN" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>UC_N</t>
   </si>
@@ -529,51 +529,51 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -652,7 +652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -665,6 +665,9 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
       <c r="I7">
         <v>2050</v>
       </c>
@@ -681,23 +684,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -707,7 +710,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -723,7 +726,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -739,7 +742,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -755,7 +758,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -771,7 +774,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -779,7 +782,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -787,7 +790,7 @@
       <c r="I30" s="7"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -795,11 +798,11 @@
       <c r="I31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_UC_MANCOALIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALIMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA6CE32-B646-4E48-ADE9-AD0163C57B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3076560-9A09-4ADE-B4D7-2A2AC02B1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_MANCOALMIN" sheetId="1" r:id="rId1"/>
@@ -83,24 +83,12 @@
     <t>UC_RHSRTS</t>
   </si>
   <si>
-    <t>LO</t>
-  </si>
-  <si>
-    <t>Minimum penetration of domestic Coal</t>
-  </si>
-  <si>
     <t>UC_RHSRTS~0</t>
   </si>
   <si>
     <t>~UC_T:UC_COMPRD</t>
   </si>
   <si>
-    <t>MANCOALIMP</t>
-  </si>
-  <si>
-    <t>UC_CEMENTHEAT_MANCOALIMP_LOW</t>
-  </si>
-  <si>
     <t>UC_COMPRD</t>
   </si>
   <si>
@@ -108,6 +96,18 @@
   </si>
   <si>
     <t>ETH</t>
+  </si>
+  <si>
+    <t>MANCOALMIN</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Maximum penetration of domestic Coal</t>
+  </si>
+  <si>
+    <t>UC_CEMENTHEAT_MANCOALMIN_LOW</t>
   </si>
 </sst>
 </file>
@@ -529,51 +529,51 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -605,102 +605,102 @@
         <v>14</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <v>2022</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" s="9">
-        <v>-0.41</v>
+        <v>-0.59</v>
       </c>
       <c r="M6" s="10">
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" s="9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="M7" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -710,7 +710,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -726,7 +726,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -742,7 +742,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -758,7 +758,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -774,7 +774,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -782,7 +782,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -790,7 +790,7 @@
       <c r="I30" s="7"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -798,11 +798,11 @@
       <c r="I31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
       <c r="G32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="7"/>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_UC_MANCOALIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALIMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3076560-9A09-4ADE-B4D7-2A2AC02B1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D944FBC-5CFC-4369-BC7D-956F2EEC2997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>Maximum penetration of domestic Coal</t>
   </si>
   <si>
-    <t>UC_CEMENTHEAT_MANCOALMIN_LOW</t>
+    <t>UC_CEMENTHEAT_MANCOALMIN_UP</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,6 +646,9 @@
         <v>-0.59</v>
       </c>
       <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>15</v>
       </c>
       <c r="O6" t="s">
@@ -681,6 +684,9 @@
         <v>-0.75</v>
       </c>
       <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>15</v>
       </c>
     </row>
